--- a/03.crawler/03.eBay/file/3.part/crawler_2.xlsx
+++ b/03.crawler/03.eBay/file/3.part/crawler_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,57 +446,72 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Picture</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Url</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Market</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Picture</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Subtitle</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Store Name</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Store Url</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Json_Src</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Description Url</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Subtitle</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Json_Quantity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Json_Price</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Json_Specific</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Json_Compatibility</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Json_Specific</t>
         </is>
       </c>
     </row>
@@ -511,53 +526,68 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>TÜRSCHLOSS VORNE LINKS FÜR SEAT LEON 1M SKODA OCTAVIA VW GOLF 4 PASSAT 3B 3BG</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EUR 18,39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.ebay.de/itm/301284845158?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TÜRSCHLOSS VORNE LINKS FÜR SEAT LEON 1M SKODA OCTAVIA VW GOLF 4 PASSAT 3B 3BG</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EUR 18,39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.ebay.de/itm/301284845158?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/2YoAAOSwq21j7L6y/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/QlwAAOSwamxmdHr8/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/psgAAOSwYkBj7L6y/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/TCkAAOSw0txj7L6y/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/A8cAAOSwZOhj7L6y/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/zj4AAOSwD3Jj7L6y/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/6REAAOSwjLhj7L6y/s-l500.jpg", "7": "https://i.ebayimg.com/images/g/4wUAAOSwmEJj7L6y/s-l500.jpg"}</t>
+          <t>### NUR FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/301284845158?t=1720775779000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>ATP-Autoteile</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>### NUR FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
+          <t>https://www.ebay.de/str/atpautoteile</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "18.200 verkauft"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/2YoAAOSwq21j7L6y/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/psgAAOSwYkBj7L6y/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/TCkAAOSw0txj7L6y/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/A8cAAOSwZOhj7L6y/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/zj4AAOSwD3Jj7L6y/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/6REAAOSwjLhj7L6y/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/4wUAAOSwmEJj7L6y/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.de/g/api/finders", "page": 15, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33648", "itemId": "301284845158", "marketplaceId": "EBAY-DE", "sellerName": "atp-autoteile"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/301284845158?t=1727868357000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "18.261 verkauft"}</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Anzahl der Teile": "1"}, "2": {"Besonderheiten": "100% Passgenauigkeit"}, "3": {"OE/OEM Referenznummer(n)": "3B1837015A, 6X1837013H, 3B1837015Q, 6X1837013C, 3B1837015AP, 3BD837015, 3BD837015A, 6X1837013A, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, Schlie\u00dfzylinder, Knaufzylinder, Doppelzylinder, Schlosseinsatz, T\u00fcrriegel, Schlossriegel, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, T\u00fcrschloss, Einsteckschloss, Schloss, Zylinderschloss, Zentralverreigelung, Stellmotor, mit und inkl +"}, "4": {"EAN": "4052093337453"}, "5": {"Material": "Kunststoff"}, "6": {"Oldtimer-Teil": "Nein"}, "7": {"Tuning- &amp; Styling-Teil": "Nein"}, "8": {"Universelle Kompatibilit\u00e4t": "Nein"}, "9": {"Hersteller": "Q1-PART"}, "10": {"Farbe": "Schwarz"}, "11": {"Teilesegment": "Serie &amp; Original"}, "12": {"Im Lieferumfang enthalten": "T\u00fcrschloss"}, "13": {"Produktart": "T\u00fcrschloss"}, "14": {"Fernbedienung": "Zentralverriegelung"}, "15": {"Produktgruppe": "Schlie\u00dfanlage"}, "16": {"Produkttyp": "T\u00fcrschloss"}, "17": {"Einbauposition": "Fahrerseite, Fahrerseitig, Li, Links, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "18": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "19": {"Herstellernummer": "3037712"}, "20": {"ITEM": "3037712"}, "21": {"Gew\u00e4hrleistung": "JA"}, "22": {"Marke": "Q1-PART"}}</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>{"page": 15, "market_place_id": "EBAY-DE", "item_id": "301284845158", "seller_name": "atp-autoteile", "category_id": "33648", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -572,53 +602,68 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>TÜRSCHLOSS ZENTRALVERRIEG&lt;wbr/&gt;ELUNG VORNE RECHTS FÜR VW POLO 9N 6R TRANSPORTER BUS T5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EUR 18,39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.ebay.de/itm/391525907146?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>TÜRSCHLOSS ZENTRALVERRIEG&lt;wbr/&gt;ELUNG VORNE RECHTS FÜR VW POLO 9N 6R TRANSPORTER BUS T5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>EUR 18,39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.ebay.de/itm/391525907146?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/lBQAAOSw56Vj7K~3/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/QlwAAOSwamxmdHr8/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/JLkAAOSwY6tj7K~3/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/AscAAOSwkFBj7K~3/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/tIEAAOSwklBj7K~3/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/z-gAAOSw~wlj7K~3/s-l500.jpg"}</t>
+          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/391525907146?t=1720775060000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>ATP-Autoteile</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
+          <t>https://www.ebay.de/str/atpautoteile</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "2.890 verkauft"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/lBQAAOSw56Vj7K~3/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/JLkAAOSwY6tj7K~3/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/AscAAOSwkFBj7K~3/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/tIEAAOSwklBj7K~3/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/z-gAAOSw~wlj7K~3/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.de/g/api/finders", "page": 6, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33648.14769", "itemId": "391525907146", "marketplaceId": "EBAY-DE", "sellerName": "atp-autoteile"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/391525907146?t=1727866106000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "2.947 verkauft"}</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"OE/OEM Referenznummer(n)": "ZENTRALVERRIEGELUNG ZV, 3B1837016BP, 3B1837016CB, 3B1837016S, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "2": {"Besonderheiten": "100% Passgenauigkeit"}, "3": {"EAN": "4052093185177"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31713445"}, "14": {"ITEM": "31713445"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>{"page": 6, "market_place_id": "EBAY-DE", "item_id": "391525907146", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -633,53 +678,68 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>TÜRSCHLOSS VORNE RECHTS FÜR SEAT LEON 1M SKODA OCTAVIA VW GOLF 4 PASSAT 3B 3BG</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EUR 18,39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.ebay.de/itm/390952552830?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>TÜRSCHLOSS VORNE RECHTS FÜR SEAT LEON 1M SKODA OCTAVIA VW GOLF 4 PASSAT 3B 3BG</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>EUR 18,39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.ebay.de/itm/390952552830?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/DtkAAOSw3OZj7LG0/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/QlwAAOSwamxmdHr8/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/e2gAAOSwgDFj7LG0/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/iGMAAOSwMtZj7LG0/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/wS8AAOSwWx5j7LG1/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/Yt0AAOSwPHFj7LG1/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/bUUAAOSwlsZj7LG1/s-l500.jpg"}</t>
+          <t>### NUR FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/390952552830?t=1720778808000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>ATP-Autoteile</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>### NUR FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
+          <t>https://www.ebay.de/str/atpautoteile</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "6.715 verkauft"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/DtkAAOSw3OZj7LG0/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/e2gAAOSwgDFj7LG0/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/iGMAAOSwMtZj7LG0/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/wS8AAOSwWx5j7LG1/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/Yt0AAOSwPHFj7LG1/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/bUUAAOSwlsZj7LG1/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.de/g/api/finders", "page": 15, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33648.14769", "itemId": "390952552830", "marketplaceId": "EBAY-DE", "sellerName": "atp-autoteile"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/390952552830?t=1727875683000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "6.749 verkauft"}</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Anzahl der Teile": "1"}, "2": {"Besonderheiten": "100% Passgenauigkeit"}, "3": {"OE/OEM Referenznummer(n)": "3B1837016A, 6X1837014A, 6X1837014H, 3B1837016AC, 3B1837016AD, 3B1837016CA, 3BD837016, 3BD837016B, 6X1837014C, 3B1837016C, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"EAN": "4052093347551"}, "5": {"Material": "Kunststoff"}, "6": {"Oldtimer-Teil": "Nein"}, "7": {"Tuning- &amp; Styling-Teil": "Nein"}, "8": {"Universelle Kompatibilit\u00e4t": "Nein"}, "9": {"Hersteller": "Q1-PART"}, "10": {"Farbe": "Schwarz"}, "11": {"Teilesegment": "Serie &amp; Original"}, "12": {"Im Lieferumfang enthalten": "T\u00fcrschloss"}, "13": {"Produktart": "T\u00fcrschloss"}, "14": {"Fernbedienung": "Zentralverriegelung"}, "15": {"Produktgruppe": "Schlie\u00dfanlage"}, "16": {"Produkttyp": "T\u00fcrschloss"}, "17": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "18": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "19": {"Herstellernummer": "31471414"}, "20": {"ITEM": "30609245"}, "21": {"Gew\u00e4hrleistung": "JA"}, "22": {"Marke": "Q1-PART"}}</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>{"page": 15, "market_place_id": "EBAY-DE", "item_id": "390952552830", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -689,58 +749,73 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>371556118150</t>
+          <t>301791991081</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>TÜRSCHLOSS HINTEN RECHTS FÜR VW BORA 1J GOLF 4 PASSAT 3B 3BG BJ 96-01</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EUR 24,80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.ebay.de/itm/301791991081?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TÜRSCHLOSS ZENTRALVERRIEG&lt;wbr/&gt;ELUNG VORNE LINKS FÜR AUDI A4 B6 8E 8H ALLROAD A6 C5 4B</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>EUR 25,79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.ebay.de/itm/371556118150?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/6Q4AAOSw1vdj7L2f/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/QlwAAOSwamxmdHr8/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/zIUAAOSwd8Bj7L2e/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/bykAAOSw5XRj7L2e/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/TZoAAOSw7qVj7L2e/s-l500.jpg"}</t>
+          <t>### NUR FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/371556118150?t=1720779375000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>ATP-Autoteile</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
+          <t>https://www.ebay.de/str/atpautoteile</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "2.260 verkauft"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/KC8AAOSwxzZj7MFT/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/ZukAAOSwNv9j7MFT/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/cEsAAOSwxa1j7MFT/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/FVUAAOSwANNj7MFT/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/0fQAAOSwD3Jj7MFS/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/1J4AAOSwwLVj7MFT/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.de/g/api/finders", "page": 7, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33648.14769", "itemId": "371556118150", "marketplaceId": "EBAY-DE", "sellerName": "atp-autoteile"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/301791991081?t=1727876157000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"OE/OEM Referenznummer(n)": "ZENTRALVERRIEGELUNG ZV, 401837015, 4B1837015B, 4B1837015G, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "2": {"Besonderheiten": "100% Passgenauigkeit"}, "3": {"EAN": "4052093210534"}, "4": {"Oldtimer-Teil": "Nein"}, "5": {"Tuning- &amp; Styling-Teil": "Nein"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Fahrerseite, Fahrerseitig, Li, Links, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31700844"}, "14": {"ITEM": "31700844"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "2.018 verkauft"}</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4058635080283"}, "3": {"OE/OEM Referenznummer(n)": "ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31783225"}, "14": {"ITEM": "31783225"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>{"page": 12, "market_place_id": "EBAY-DE", "item_id": "301791991081", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -750,58 +825,73 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>301357432588</t>
+          <t>373222887187</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>TÜRSCHLOSS VORNE RECHTS FÜR SEAT ALTEA 5P SKODA OCTAVIA 2 VW GOLF 5 6 TOURAN 1T</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EUR 22,29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.ebay.de/itm/373222887187?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TÜRSCHLOSS HINTEN RECHTS FÜR VW GOLF PLUS 5M 5 1K 6 AJ JETTA 3 1K 4 TOURAN 1T</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EUR 21,29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.ebay.de/itm/301357432588?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/2hYAAOSw3Gxj7LJR/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/QlwAAOSwamxmdHr8/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/qQwAAOSwFvBj7LJS/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/dCYAAOSwVe9j7LJR/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/b9QAAOSwJVtj7LJR/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/mLEAAOSw1d5j7LJR/s-l500.jpg"}</t>
+          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/301357432588?t=1720772659000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>ATP-Autoteile</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>### NUR FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ## #</t>
+          <t>https://www.ebay.de/str/atpautoteile</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "2.720 verkauft"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/jXUAAOSwOxJj7LR9/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/hVkAAOSwIJRj7LR9/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/Xg4AAOSw2RJj7LR9/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/OhAAAOSwmbxj7LR9/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.de/g/api/finders", "page": 10, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33648.14769", "itemId": "301357432588", "marketplaceId": "EBAY-DE", "sellerName": "atp-autoteile"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/373222887187?t=1727866617000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4052093276141"}, "3": {"OE/OEM Referenznummer(n)": "7L0839016, 7L0839016D, 3D4839016A, 3D4839016L, 7L0839016A, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-PART"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31408480"}, "14": {"ITEM": "31408480"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "1.575 verkauft"}</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"OE/OEM Referenznummer(n)": "3D1837016, 3D1837016AC, 3D1837016AP, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "3": {"EAN": "4052093210930"}, "4": {"Oldtimer-Teil": "Nein"}, "5": {"Tuning- &amp; Styling-Teil": "Nein"}, "6": {"Hersteller": "Q1-PART"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schliessanlage"}, "10": {"Produkttyp": "T\u00dcRSCHLOSS"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31477703"}, "14": {"ITEM": "31593596"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>{"page": 13, "market_place_id": "EBAY-DE", "item_id": "373222887187", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -811,58 +901,73 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>391525907148</t>
+          <t>301357432588</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>TÜRSCHLOSS HINTEN RECHTS FÜR VW GOLF PLUS 5M 5 1K 6 AJ JETTA 3 1K 4 TOURAN 1T</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EUR 21,29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.ebay.de/itm/301357432588?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TÜRSCHLOSS ZENTRALVERRIEG&lt;wbr/&gt;ELUNG HINTEN LINKS FÜR VW POLO 9N</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EUR 21,39</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.ebay.de/itm/391525907148?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/VyEAAOSwUN9j7Lsc/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/QlwAAOSwamxmdHr8/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/VnIAAOSw9RZj7Lsc/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/ydsAAOSwDc5j7Lsb/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/KpAAAOSw41dj7Lsc/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/m-sAAOSwl4Zj7Lsc/s-l500.jpg"}</t>
+          <t>### NUR FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ## #</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/391525907148?t=1720774073000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>ATP-Autoteile</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
+          <t>https://www.ebay.de/str/atpautoteile</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "1.953 verkauft"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/2hYAAOSw3Gxj7LJR/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/qQwAAOSwFvBj7LJS/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/dCYAAOSwVe9j7LJR/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/b9QAAOSwJVtj7LJR/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/mLEAAOSw1d5j7LJR/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.de/g/api/finders", "page": 5, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33648.14769", "itemId": "391525907148", "marketplaceId": "EBAY-DE", "sellerName": "atp-autoteile"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/301357432588?t=1727866371000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4058632645232"}, "3": {"OE/OEM Referenznummer(n)": "ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Fahrerseite, Fahrerseitig, Li, Links, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31715927"}, "14": {"ITEM": "31715927"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "2.737 verkauft"}</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4052093276141"}, "3": {"OE/OEM Referenznummer(n)": "7L0839016, 7L0839016D, 3D4839016A, 3D4839016L, 7L0839016A, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-PART"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31408480"}, "14": {"ITEM": "31408480"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>{"page": 10, "market_place_id": "EBAY-DE", "item_id": "301357432588", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -872,58 +977,73 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>371165049724</t>
+          <t>371434593545</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>TÜRSCHLOSS TÜRSCHLOß VORNE LINKS FÜR VW PASSAT 3C TIGUAN 5N BJ 07-09</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EUR 25,79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.ebay.de/itm/371434593545?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TÜRSCHLOSS HINTEN LINKS FÜR SEAT LEON 1M SKODA OCTAVIA 1 VW GOLF 4 PASSAT 3B</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EUR 24,80</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.ebay.de/itm/371165049724?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/PAkAAOSwFW1j7LZo/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/QlwAAOSwamxmdHr8/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/boYAAOSwAnBj7LZo/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/-pUAAOSwzsJj7LZo/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/rZcAAOSwaNZj7LZo/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/OqoAAOSw6oxj7LZo/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/5j8AAOSwO8Vj7LZp/s-l500.jpg"}</t>
+          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/371165049724?t=1725923908000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>ATP-Autoteile</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t># NUR FÜR ZENTRALVERRIEGELUNG BIS MJ 2002 PASSEND #</t>
+          <t>https://www.ebay.de/str/atpautoteile</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "965 verkauft"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/0OoAAOSwz5Nj7LTa/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/CeIAAOSwMwlj7LTa/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/epsAAOSw44lj7LTa/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/f8UAAOSwsh1j7LTa/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/HoYAAOSwxylj7LTa/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/bgAAAOSwJ6hj7LTa/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.de/g/api/finders", "page": 11, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33648.14769", "itemId": "371165049724", "marketplaceId": "EBAY-DE", "sellerName": "atp-autoteile"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/371434593545?t=1727866661000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"OE/OEM Referenznummer(n)": "3B4839015A, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "3": {"EAN": "4052093387847"}, "4": {"Oldtimer-Teil": "Nein"}, "5": {"Tuning- &amp; Styling-Teil": "Nein"}, "6": {"Hersteller": "Q1-PART"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Karosserie"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Fahrerseite, Fahrerseitig, Li, Links, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31474481"}, "14": {"ITEM": "31220224"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "937 verkauft"}</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"OE/OEM Referenznummer(n)": "ZENTRALVERRIEGELUNG ZV, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "2": {"Besonderheiten": "100% Passgenauigkeit"}, "3": {"EAN": "4058612938064"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Fahrerseite, Fahrerseitig, Li, Links, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31733467"}, "14": {"ITEM": "31733467"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>{"page": 6, "market_place_id": "EBAY-DE", "item_id": "371434593545", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -933,58 +1053,73 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>371570167825</t>
+          <t>301873142210</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>TÜRSCHLOSS VORNE LINKS PASSEND FÜR VW MULTIVAN BUS T5 POLO 9N</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EUR 17,79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://www.ebay.de/itm/301873142210?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TÜRSCHLOSS ZENTRALVERRIEG&lt;wbr/&gt;ELUNG ZV HINTEN RECHTS FÜR VW POLO 9N</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EUR 18,99</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.ebay.de/itm/371570167825?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/Im8AAOSw5PFj7L2e/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/QlwAAOSwamxmdHr8/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/Ph0AAOSwbptj7L2e/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/OxMAAOSwR2Fj7L2e/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/A1QAAOSwHVJj7L2e/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/hjUAAOSwK2dj7L2e/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/mC0AAOSwVXhj7L2e/s-l500.jpg"}</t>
+          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/371570167825?t=1720774989000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>ATP-Autoteile</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
+          <t>https://www.ebay.de/str/atpautoteile</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "2.097 verkauft"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/hhEAAOSwnKJj7L2f/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/8x0AAOSwI~xj7L2f/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/5UMAAOSwYw9j7L2f/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.de/g/api/finders", "page": 5, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33648.14769", "itemId": "371570167825", "marketplaceId": "EBAY-DE", "sellerName": "atp-autoteile"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/301873142210?t=1726728552000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4058632644402"}, "3": {"OE/OEM Referenznummer(n)": "ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31700737"}, "14": {"ITEM": "31700737"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "3.235 verkauft"}</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"OE/OEM Referenznummer(n)": "3B1837015AQ, 3B1837015AM, 3B1837015N, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, HECKKLAPPE, mit und inkl +"}, "3": {"EAN": "4052093165773"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Fahrerseite, Fahrerseitig, Li, Links, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31474011"}, "14": {"ITEM": "31700797"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>{"page": 8, "market_place_id": "EBAY-DE", "item_id": "301873142210", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -994,58 +1129,73 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>301791991081</t>
+          <t>391525907148</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>TÜRSCHLOSS ZENTRALVERRIEG&lt;wbr/&gt;ELUNG HINTEN LINKS FÜR VW POLO 9N</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EUR 21,39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.ebay.de/itm/391525907148?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>TÜRSCHLOSS HINTEN RECHTS FÜR VW BORA 1J GOLF 4 PASSAT 3B 3BG BJ 96-01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>EUR 19,99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.ebay.de/itm/301791991081?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/KC8AAOSwxzZj7MFT/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/QlwAAOSwamxmdHr8/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/ZukAAOSwNv9j7MFT/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/cEsAAOSwxa1j7MFT/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/FVUAAOSwANNj7MFT/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/0fQAAOSwD3Jj7MFS/s-l500.jpg", "6": "https://i.ebayimg.com/images/g/1J4AAOSwwLVj7MFT/s-l500.jpg"}</t>
+          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/301791991081?t=1720779481000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>ATP-Autoteile</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>### NUR FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
+          <t>https://www.ebay.de/str/atpautoteile</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "1.997 verkauft"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/VyEAAOSwUN9j7Lsc/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/VnIAAOSw9RZj7Lsc/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/ydsAAOSwDc5j7Lsb/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/KpAAAOSw41dj7Lsc/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/m-sAAOSwl4Zj7Lsc/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.de/g/api/finders", "page": 12, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33648.14769", "itemId": "301791991081", "marketplaceId": "EBAY-DE", "sellerName": "atp-autoteile"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/391525907148?t=1727867861000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4058635080283"}, "3": {"OE/OEM Referenznummer(n)": "ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31783225"}, "14": {"ITEM": "31783225"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "1.981 verkauft"}</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4058632645232"}, "3": {"OE/OEM Referenznummer(n)": "ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Fahrerseite, Fahrerseitig, Li, Links, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31715927"}, "14": {"ITEM": "31715927"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>{"page": 5, "market_place_id": "EBAY-DE", "item_id": "391525907148", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
@@ -1055,58 +1205,73 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>373222887187</t>
+          <t>371570167825</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>TÜRSCHLOSS ZENTRALVERRIEG&lt;wbr/&gt;ELUNG ZV HINTEN RECHTS FÜR VW POLO 9N</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EUR 18,99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://www.ebay.de/itm/371570167825?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TÜRSCHLOSS VORNE RECHTS FÜR SEAT ALTEA 5P SKODA OCTAVIA 2 VW GOLF 5 6 TOURAN 1T</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>EUR 21,29</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.ebay.de/itm/373222887187?_ul=DE&amp;_stpos=10115&amp;orig_cvip=true</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>{"0": "https://i.ebayimg.com/images/g/jXUAAOSwOxJj7LR9/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/QlwAAOSwamxmdHr8/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/hVkAAOSwIJRj7LR9/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/Xg4AAOSw2RJj7LR9/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/OhAAAOSwmbxj7LR9/s-l500.jpg"}</t>
+          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://vi.vipr.ebaydesc.com/itmdesc/373222887187?t=1725923906000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
+          <t>ATP-Autoteile</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>### FÜR FAHRZEUGE MIT ZENTRALVERRIEGELUNG ###</t>
+          <t>https://www.ebay.de/str/atpautoteile</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "1.558 verkauft"}</t>
+          <t>{"0": "https://i.ebayimg.com/images/g/Im8AAOSw5PFj7L2e/s-l500.jpg", "1": "https://i.ebayimg.com/images/g/Ph0AAOSwbptj7L2e/s-l500.jpg", "2": "https://i.ebayimg.com/images/g/OxMAAOSwR2Fj7L2e/s-l500.jpg", "3": "https://i.ebayimg.com/images/g/A1QAAOSwHVJj7L2e/s-l500.jpg", "4": "https://i.ebayimg.com/images/g/hjUAAOSwK2dj7L2e/s-l500.jpg", "5": "https://i.ebayimg.com/images/g/mC0AAOSwVXhj7L2e/s-l500.jpg"}</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{"api": "https://www.ebay.de/g/api/finders", "page": 13, "data": {"scopedContext": {"catalogDetails": {"categoryId": "33648.14769", "itemId": "373222887187", "marketplaceId": "EBAY-DE", "sellerName": "atp-autoteile"}}}}</t>
+          <t>https://vi.vipr.ebaydesc.com/itmdesc/371570167825?t=1727868190000&amp;category=33648&amp;seller=atp-autoteile&amp;excSoj=1&amp;ver=0&amp;excTrk=1&amp;lsite=77&amp;ittenable=false&amp;domain=ebay.com&amp;descgauge=1&amp;cspheader=1&amp;oneClk=2&amp;secureDesc=1</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"OE/OEM Referenznummer(n)": "3D1837016, 3D1837016AC, 3D1837016AP, ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "3": {"EAN": "4052093210930"}, "4": {"Oldtimer-Teil": "Nein"}, "5": {"Tuning- &amp; Styling-Teil": "Nein"}, "6": {"Hersteller": "Q1-PART"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schliessanlage"}, "10": {"Produkttyp": "T\u00dcRSCHLOSS"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Vo, Va, Vorn, Vorne, Vorderachse, Vorderseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31477703"}, "14": {"ITEM": "31593596"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+          <t>{"0": "Mehr als 10 verf\u00fcgbar", "1": "2.122 verkauft"}</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>{"0": {"Artikelzustand": "Neu: Neuer, unbenutzter und unbesch\u00e4digter Artikel in der unge\u00f6ffneten Originalverpackung (soweit eine Verpackung vorhanden ist). Die Verpackung sollte der im Einzelhandel entsprechen. Ausnahme: Der Artikel war urspr\u00fcnglich in einer Nichteinzelhandelsverpackung verpackt, z. B. unbedruckter Karton oder Plastikh\u00fclle. Weitere Einzelheiten im Angebot des Verk\u00e4ufers."}, "1": {"Besonderheiten": "100% Passgenauigkeit"}, "2": {"EAN": "4058632644402"}, "3": {"OE/OEM Referenznummer(n)": "ATP Autoteile Auto Ersatzteile P\u00f6llath Shop brands4cars, SCHLIE\u00dfZYLINDER, ZYLINDERSCHLOSS, STELLMOTOR, MICROSCHALTER, MIKROSCHALTER, T\u00dcRSCHLOSS, T\u00dcRSCHLO\u00df, T\u00dcR SCHLO\u00df SCHLOSS, mit und inkl +"}, "4": {"Oldtimer-Teil": "NEIN"}, "5": {"Tuning- &amp; Styling-Teil": "NEIN"}, "6": {"Hersteller": "Q1-Part"}, "7": {"Teilesegment": "Serie &amp; Original"}, "8": {"Produktart": "T\u00fcrschloss"}, "9": {"Produktgruppe": "Schlie\u00dfanlage"}, "10": {"Produkttyp": "T\u00fcrschloss"}, "11": {"Einbauposition": "Beifahrerseite, Beifahrerseitig, Re, Rechts, Hi, Ha, Hinten, Hinterachse, Hinterseite, Hinterseitig, R\u00fcckseite"}, "12": {"Oberfl\u00e4chenbeschaffenheit": "NEU"}, "13": {"Herstellernummer": "31700737"}, "14": {"ITEM": "31700737"}, "15": {"Gew\u00e4hrleistung": "JA"}, "16": {"Marke": "Q1-PART"}}</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>{"page": 5, "market_place_id": "EBAY-DE", "item_id": "371570167825", "seller_name": "atp-autoteile", "category_id": "33648.14769", "api": "https://www.ebay.de/g/api/finders"}</t>
         </is>
       </c>
     </row>
